--- a/pendencias.xlsx
+++ b/pendencias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ProjetoFamilia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF098C0-1A40-440D-ADE1-CE612AEBD8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9453F3BF-057F-454C-B231-783A436DF4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A11641B-C77E-417E-977D-6E85E0310B48}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
